--- a/experiment/linear/ex9_1_2/compare/C-Estacionario/ex9_1_2_C-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_2/compare/C-Estacionario/ex9_1_2_C-Estacionario.xlsx
@@ -482,13 +482,13 @@
         <v>-533.6204654442878</v>
       </c>
       <c r="E2">
-        <v>0.00023148</v>
+        <v>0.0001629</v>
       </c>
       <c r="F2">
-        <v>0.02027277</v>
+        <v>0.01434411</v>
       </c>
       <c r="G2">
-        <v>0.000442330587</v>
+        <v>0.00026464986027190335</v>
       </c>
       <c r="H2">
         <v>1610</v>
@@ -517,13 +517,13 @@
         <v>-533.6204654442878</v>
       </c>
       <c r="E3">
-        <v>0.00246429</v>
+        <v>0.00179442</v>
       </c>
       <c r="F3">
-        <v>0.01009989</v>
+        <v>0.01600605</v>
       </c>
       <c r="G3">
-        <v>0.003296774782034346</v>
+        <v>0.0022136484611973394</v>
       </c>
       <c r="H3">
         <v>2064</v>
@@ -552,13 +552,13 @@
         <v>-533.620466037683</v>
       </c>
       <c r="E4">
-        <v>0.01208079</v>
+        <v>0.00819099</v>
       </c>
       <c r="F4">
-        <v>0.02459097</v>
+        <v>0.01660491</v>
       </c>
       <c r="G4">
-        <v>0.01401705602112676</v>
+        <v>0.009364566741573033</v>
       </c>
       <c r="H4">
         <v>11127</v>

--- a/experiment/linear/ex9_1_2/compare/C-Estacionario/ex9_1_2_C-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_2/compare/C-Estacionario/ex9_1_2_C-Estacionario.xlsx
@@ -482,13 +482,13 @@
         <v>-533.6204654442878</v>
       </c>
       <c r="E2">
-        <v>0.0001629</v>
+        <v>0.000223218</v>
       </c>
       <c r="F2">
-        <v>0.01434411</v>
+        <v>0.017757168</v>
       </c>
       <c r="G2">
-        <v>0.00026464986027190335</v>
+        <v>0.00036514324190000004</v>
       </c>
       <c r="H2">
         <v>1610</v>
@@ -517,13 +517,13 @@
         <v>-533.6204654442878</v>
       </c>
       <c r="E3">
-        <v>0.00179442</v>
+        <v>0.002460208</v>
       </c>
       <c r="F3">
-        <v>0.01600605</v>
+        <v>0.006888562</v>
       </c>
       <c r="G3">
-        <v>0.0022136484611973394</v>
+        <v>0.0028385706895963617</v>
       </c>
       <c r="H3">
         <v>2064</v>
@@ -552,13 +552,13 @@
         <v>-533.620466037683</v>
       </c>
       <c r="E4">
-        <v>0.00819099</v>
+        <v>0.010465599</v>
       </c>
       <c r="F4">
-        <v>0.01660491</v>
+        <v>0.015279491</v>
       </c>
       <c r="G4">
-        <v>0.009364566741573033</v>
+        <v>0.011949152739234449</v>
       </c>
       <c r="H4">
         <v>11127</v>
